--- a/Data Analysis.xlsx
+++ b/Data Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUY\web-workspace\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2D4C1C-12E9-4D9D-81BA-1BBBC5952E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A0FAA8-6A7C-4D2A-85B3-381597CB34B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80E1AB70-75C9-4C22-9691-2E03C93D6BA8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{80E1AB70-75C9-4C22-9691-2E03C93D6BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="67">
   <si>
     <t>ID, SKU, Title, Price, Sale price, Featured image, Gallery, Category, Tag, Description, Created date, Modified date</t>
   </si>
@@ -322,18 +322,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -357,8 +351,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D53A79E-70CF-4565-9047-3698B3AF378A}">
-  <dimension ref="A4:N62"/>
+  <dimension ref="A4:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,9 +680,8 @@
     <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
@@ -701,197 +694,214 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>62</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12" t="s">
+      <c r="A7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="A9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="A10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
+      <c r="A11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
+      <c r="A12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
+      <c r="A14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="E18" s="6" t="s">
+      <c r="C18" s="12"/>
+      <c r="E18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -923,7 +933,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -953,7 +963,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -985,7 +995,7 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1017,7 +1027,7 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+      <c r="B24" s="11">
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1047,55 +1057,55 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="E29" s="6" t="s">
+      <c r="C29" s="12"/>
+      <c r="E29" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="H29" s="6" t="s">
+      <c r="F29" s="12"/>
+      <c r="H29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="6"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7" t="s">
+      <c r="H30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="13">
+      <c r="B31" s="11">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="11">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="11">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -1103,19 +1113,19 @@
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="13">
+      <c r="B32" s="11">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="11">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="11">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -1123,19 +1133,19 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="13">
+      <c r="B33" s="11">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="11">
         <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="11">
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -1143,19 +1153,19 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="13">
+      <c r="B34" s="11">
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="11">
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -1163,19 +1173,19 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="13">
+      <c r="B35" s="11">
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="11">
         <v>2</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <v>2</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -1183,19 +1193,19 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="13">
+      <c r="B36" s="11">
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="11">
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <v>3</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -1203,19 +1213,19 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="13">
+      <c r="B37" s="11">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="11">
         <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="11">
         <v>3</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -1223,19 +1233,19 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="13">
+      <c r="B38" s="11">
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="11">
         <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="11">
         <v>4</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -1243,13 +1253,13 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="13">
+      <c r="B39" s="11">
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="11">
         <v>4</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -1257,21 +1267,185 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="13">
+      <c r="B40" s="11">
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <v>5</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1">
+        <v>29.99</v>
+      </c>
+      <c r="F44" s="1">
+        <v>25.99</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="2">
+        <v>45076.427083333336</v>
+      </c>
+      <c r="I44" s="2">
+        <v>45076.479166666664</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="11">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="1">
+        <v>49.99</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="2">
+        <v>45076.40625</v>
+      </c>
+      <c r="I45" s="2">
+        <v>45076.458333333336</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="F46" s="1">
+        <v>10.99</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="2">
+        <v>45076.5</v>
+      </c>
+      <c r="I46" s="2">
+        <v>45076.597222222219</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="11">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="1">
+        <v>99.99</v>
+      </c>
+      <c r="F47" s="1">
+        <v>89.99</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="2">
+        <v>45076.645833333336</v>
+      </c>
+      <c r="I47" s="2">
+        <v>45076.697916666664</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="11">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="1">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="2">
+        <v>45076.75</v>
+      </c>
+      <c r="I48" s="2">
+        <v>45076.802083333336</v>
+      </c>
+    </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -1312,7 +1486,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="1">
@@ -1353,7 +1527,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="1">
@@ -1392,7 +1566,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="1">
@@ -1433,7 +1607,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="1">
@@ -1474,7 +1648,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="1">
@@ -1511,42 +1685,104 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C63" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="B42:I42"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
